--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业利息费用.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业利息费用.xlsx
@@ -2151,7 +2151,7 @@
         <v>41.1</v>
       </c>
       <c r="CN3" t="n">
-        <v>44</v>
+        <v>14.40000000000001</v>
       </c>
       <c r="CO3" t="n">
         <v>73.40000000000001</v>
@@ -2563,7 +2563,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AU4" t="n">
-        <v>45.90000000000001</v>
+        <v>17.70000000000002</v>
       </c>
       <c r="AV4" t="n">
         <v>191</v>
@@ -2581,7 +2581,7 @@
         <v>7.9</v>
       </c>
       <c r="BA4" t="n">
-        <v>5.300000000000002</v>
+        <v>1.700000000000002</v>
       </c>
       <c r="BB4" t="n">
         <v>15.4</v>
@@ -2698,7 +2698,7 @@
         <v>45.2</v>
       </c>
       <c r="CN4" t="n">
-        <v>16.90000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="CO4" t="n">
         <v>73.7</v>
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.29999999999998</v>
+        <v>12.69999999999996</v>
       </c>
       <c r="C5" t="n">
         <v>144.4</v>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>2.399999999999978</v>
       </c>
       <c r="O5" t="n">
         <v>138.6</v>
@@ -3038,7 +3038,7 @@
         <v>-2.3</v>
       </c>
       <c r="W5" t="n">
-        <v>9.199999999999996</v>
+        <v>8.600000000000001</v>
       </c>
       <c r="X5" t="n">
         <v>47.6</v>
@@ -3047,7 +3047,7 @@
         <v>2.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.200000000000017</v>
+        <v>1.600000000000037</v>
       </c>
       <c r="AA5" t="n">
         <v>90.40000000000001</v>
@@ -3065,7 +3065,7 @@
         <v>3.3</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.5</v>
+        <v>0.699999999999996</v>
       </c>
       <c r="AG5" t="n">
         <v>14.7</v>
@@ -3110,7 +3110,7 @@
         <v>4.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>18.60000000000002</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="AV5" t="n">
         <v>246.8</v>
@@ -3236,7 +3236,7 @@
         <v>-3.2</v>
       </c>
       <c r="CK5" t="n">
-        <v>10.9</v>
+        <v>7.300000000000002</v>
       </c>
       <c r="CL5" t="n">
         <v>85.40000000000001</v>
@@ -3272,7 +3272,7 @@
         <v>37</v>
       </c>
       <c r="CW5" t="n">
-        <v>4.79999999999999</v>
+        <v>0.899999999999991</v>
       </c>
       <c r="CX5" t="n">
         <v>115.4</v>
@@ -3290,7 +3290,7 @@
         <v>-4.2</v>
       </c>
       <c r="DC5" t="n">
-        <v>2.300000000000002</v>
+        <v>0.1000000000000059</v>
       </c>
       <c r="DD5" t="n">
         <v>38.3</v>
@@ -3308,7 +3308,7 @@
         <v>1.1</v>
       </c>
       <c r="DI5" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="DJ5" t="n">
         <v>5.2</v>
@@ -3317,7 +3317,7 @@
         <v>-5.5</v>
       </c>
       <c r="DL5" t="n">
-        <v>6.100000000000001</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="DM5" t="n">
         <v>100.9</v>
@@ -3326,7 +3326,7 @@
         <v>11</v>
       </c>
       <c r="DO5" t="n">
-        <v>4.600000000000003</v>
+        <v>4.400000000000015</v>
       </c>
       <c r="DP5" t="n">
         <v>38.8</v>
@@ -3344,7 +3344,7 @@
         <v>-0.4</v>
       </c>
       <c r="DU5" t="n">
-        <v>1.000000000000002</v>
+        <v>0.4000000000000042</v>
       </c>
       <c r="DV5" t="n">
         <v>14.9</v>
@@ -3353,7 +3353,7 @@
         <v>2.1</v>
       </c>
       <c r="DX5" t="n">
-        <v>2.800000000000002</v>
+        <v>2.200000000000014</v>
       </c>
       <c r="DY5" t="n">
         <v>45.1</v>
@@ -3371,7 +3371,7 @@
         <v>-14.3</v>
       </c>
       <c r="ED5" t="n">
-        <v>2.299999999999999</v>
+        <v>1.699999999999997</v>
       </c>
       <c r="EE5" t="n">
         <v>61.5</v>
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.20000000000002</v>
+        <v>0.9000000000000412</v>
       </c>
       <c r="C6" t="n">
         <v>171.4</v>
@@ -3531,7 +3531,7 @@
         <v>13.4</v>
       </c>
       <c r="E6" t="n">
-        <v>2.600000000000001</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>25.3</v>
@@ -3540,7 +3540,7 @@
         <v>21.1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2000000000000006</v>
+        <v>1.249000902703301e-15</v>
       </c>
       <c r="I6" t="n">
         <v>4.4</v>
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>28.30000000000001</v>
+        <v>21.10000000000002</v>
       </c>
       <c r="O6" t="n">
         <v>169.1</v>
@@ -3567,7 +3567,7 @@
         <v>2.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>653.3000000000002</v>
+        <v>397.2999999999992</v>
       </c>
       <c r="R6" t="n">
         <v>3835.3</v>
@@ -3576,7 +3576,7 @@
         <v>3.5</v>
       </c>
       <c r="T6" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="U6" t="n">
         <v>435.1</v>
@@ -3594,7 +3594,7 @@
         <v>8.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.7</v>
+        <v>10.59999999999995</v>
       </c>
       <c r="AA6" t="n">
         <v>115.7</v>
@@ -3603,7 +3603,7 @@
         <v>11.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>3</v>
+        <v>1.799999999999998</v>
       </c>
       <c r="AD6" t="n">
         <v>19</v>
@@ -3612,7 +3612,7 @@
         <v>2.2</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.899999999999999</v>
+        <v>0.3000000000000009</v>
       </c>
       <c r="AG6" t="n">
         <v>18.3</v>
@@ -3621,7 +3621,7 @@
         <v>2.8</v>
       </c>
       <c r="AI6" t="n">
-        <v>964</v>
+        <v>508.6</v>
       </c>
       <c r="AJ6" t="n">
         <v>5817.5</v>
@@ -3639,7 +3639,7 @@
         <v>16.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.1</v>
+        <v>0.5000000000000013</v>
       </c>
       <c r="AP6" t="n">
         <v>5.4</v>
@@ -3648,7 +3648,7 @@
         <v>-10</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.300000000000004</v>
+        <v>4.500000000000007</v>
       </c>
       <c r="AS6" t="n">
         <v>38.3</v>
@@ -3666,7 +3666,7 @@
         <v>2</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.700000000000003</v>
+        <v>0.3000000000000012</v>
       </c>
       <c r="AY6" t="n">
         <v>34.1</v>
@@ -3675,7 +3675,7 @@
         <v>12.9</v>
       </c>
       <c r="BA6" t="n">
-        <v>3.300000000000004</v>
+        <v>2.70000000000001</v>
       </c>
       <c r="BB6" t="n">
         <v>24.3</v>
@@ -3684,7 +3684,7 @@
         <v>1.7</v>
       </c>
       <c r="BD6" t="n">
-        <v>1.800000000000011</v>
+        <v>0.8000000000000216</v>
       </c>
       <c r="BE6" t="n">
         <v>92.2</v>
@@ -3693,7 +3693,7 @@
         <v>1.8</v>
       </c>
       <c r="BG6" t="n">
-        <v>8.499999999999993</v>
+        <v>3.799999999999994</v>
       </c>
       <c r="BH6" t="n">
         <v>67.59999999999999</v>
@@ -3702,7 +3702,7 @@
         <v>13.4</v>
       </c>
       <c r="BJ6" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="BK6" t="n">
         <v>234.2</v>
@@ -3711,7 +3711,7 @@
         <v>12.1</v>
       </c>
       <c r="BM6" t="n">
-        <v>1.1</v>
+        <v>0.4999999999999977</v>
       </c>
       <c r="BN6" t="n">
         <v>4.4</v>
@@ -3720,7 +3720,7 @@
         <v>-22.8</v>
       </c>
       <c r="BP6" t="n">
-        <v>73.20000000000005</v>
+        <v>12.8000000000001</v>
       </c>
       <c r="BQ6" t="n">
         <v>449.2</v>
@@ -3729,7 +3729,7 @@
         <v>-10.1</v>
       </c>
       <c r="BS6" t="n">
-        <v>10.7</v>
+        <v>4.899999999999995</v>
       </c>
       <c r="BT6" t="n">
         <v>59.7</v>
@@ -3738,7 +3738,7 @@
         <v>14.4</v>
       </c>
       <c r="BV6" t="n">
-        <v>204.3</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="BW6" t="n">
         <v>1292.8</v>
@@ -3747,7 +3747,7 @@
         <v>4.7</v>
       </c>
       <c r="BY6" t="n">
-        <v>185.1999999999998</v>
+        <v>68.99999999999959</v>
       </c>
       <c r="BZ6" t="n">
         <v>1165.5</v>
@@ -3756,7 +3756,7 @@
         <v>3.7</v>
       </c>
       <c r="CB6" t="n">
-        <v>37.39999999999998</v>
+        <v>24.99999999999994</v>
       </c>
       <c r="CC6" t="n">
         <v>259.9</v>
@@ -3765,7 +3765,7 @@
         <v>11.4</v>
       </c>
       <c r="CE6" t="n">
-        <v>6.700000000000003</v>
+        <v>1.100000000000009</v>
       </c>
       <c r="CF6" t="n">
         <v>31.2</v>
@@ -3783,7 +3783,7 @@
         <v>-1.2</v>
       </c>
       <c r="CK6" t="n">
-        <v>9.599999999999994</v>
+        <v>0.4999999999999929</v>
       </c>
       <c r="CL6" t="n">
         <v>104.9</v>
@@ -3792,7 +3792,7 @@
         <v>49.9</v>
       </c>
       <c r="CN6" t="n">
-        <v>14.59999999999999</v>
+        <v>7.099999999999991</v>
       </c>
       <c r="CO6" t="n">
         <v>113.5</v>
@@ -3801,7 +3801,7 @@
         <v>-1.2</v>
       </c>
       <c r="CQ6" t="n">
-        <v>6.100000000000001</v>
+        <v>1.299999999999997</v>
       </c>
       <c r="CR6" t="n">
         <v>37.7</v>
@@ -3810,7 +3810,7 @@
         <v>-0.8</v>
       </c>
       <c r="CT6" t="n">
-        <v>43.00000000000003</v>
+        <v>12.20000000000001</v>
       </c>
       <c r="CU6" t="n">
         <v>333.2</v>
@@ -3819,7 +3819,7 @@
         <v>34.3</v>
       </c>
       <c r="CW6" t="n">
-        <v>22.70000000000002</v>
+        <v>17.00000000000004</v>
       </c>
       <c r="CX6" t="n">
         <v>144.6</v>
@@ -3828,7 +3828,7 @@
         <v>5</v>
       </c>
       <c r="CZ6" t="n">
-        <v>18.3</v>
+        <v>17.49999999999998</v>
       </c>
       <c r="DA6" t="n">
         <v>98.40000000000001</v>
@@ -3837,7 +3837,7 @@
         <v>-5.7</v>
       </c>
       <c r="DC6" t="n">
-        <v>7</v>
+        <v>3.499999999999995</v>
       </c>
       <c r="DD6" t="n">
         <v>47.7</v>
@@ -3846,7 +3846,7 @@
         <v>1.7</v>
       </c>
       <c r="DF6" t="n">
-        <v>106.4</v>
+        <v>38</v>
       </c>
       <c r="DG6" t="n">
         <v>689.4</v>
@@ -3855,7 +3855,7 @@
         <v>-1.1</v>
       </c>
       <c r="DI6" t="n">
-        <v>1.2</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="DJ6" t="n">
         <v>6.5</v>
@@ -3864,7 +3864,7 @@
         <v>-3</v>
       </c>
       <c r="DL6" t="n">
-        <v>18.3</v>
+        <v>7.099999999999998</v>
       </c>
       <c r="DM6" t="n">
         <v>125.6</v>
@@ -3873,7 +3873,7 @@
         <v>8.6</v>
       </c>
       <c r="DO6" t="n">
-        <v>7.399999999999999</v>
+        <v>2.799999999999995</v>
       </c>
       <c r="DP6" t="n">
         <v>50.2</v>
@@ -3882,7 +3882,7 @@
         <v>-10.2</v>
       </c>
       <c r="DR6" t="n">
-        <v>38.5</v>
+        <v>25.29999999999996</v>
       </c>
       <c r="DS6" t="n">
         <v>233.2</v>
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="DU6" t="n">
-        <v>2.399999999999999</v>
+        <v>0.699999999999994</v>
       </c>
       <c r="DV6" t="n">
         <v>19.4</v>
@@ -3900,7 +3900,7 @@
         <v>3.2</v>
       </c>
       <c r="DX6" t="n">
-        <v>9.199999999999996</v>
+        <v>3.899999999999985</v>
       </c>
       <c r="DY6" t="n">
         <v>55.4</v>
@@ -3909,7 +3909,7 @@
         <v>3.4</v>
       </c>
       <c r="EA6" t="n">
-        <v>65.80000000000001</v>
+        <v>8.600000000000083</v>
       </c>
       <c r="EB6" t="n">
         <v>375.3</v>
@@ -3918,7 +3918,7 @@
         <v>-15.1</v>
       </c>
       <c r="ED6" t="n">
-        <v>12.09999999999999</v>
+        <v>7.799999999999994</v>
       </c>
       <c r="EE6" t="n">
         <v>76.5</v>
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.80000000000001</v>
+        <v>16.89999999999997</v>
       </c>
       <c r="C7" t="n">
         <v>198.8</v>
@@ -4078,7 +4078,7 @@
         <v>3.2</v>
       </c>
       <c r="E7" t="n">
-        <v>2.600000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="F7" t="n">
         <v>28.9</v>
@@ -4087,7 +4087,7 @@
         <v>23</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5999999999999996</v>
+        <v>0.2999999999999982</v>
       </c>
       <c r="I7" t="n">
         <v>5.2</v>
@@ -4114,7 +4114,7 @@
         <v>2.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>621.7999999999993</v>
+        <v>96.49999999999955</v>
       </c>
       <c r="R7" t="n">
         <v>4464</v>
@@ -4123,7 +4123,7 @@
         <v>2.4</v>
       </c>
       <c r="T7" t="n">
-        <v>72.60000000000002</v>
+        <v>1.600000000000023</v>
       </c>
       <c r="U7" t="n">
         <v>507.3</v>
@@ -4132,7 +4132,7 @@
         <v>-0.9</v>
       </c>
       <c r="W7" t="n">
-        <v>9.5</v>
+        <v>4.29999999999999</v>
       </c>
       <c r="X7" t="n">
         <v>70.40000000000001</v>
@@ -4168,7 +4168,7 @@
         <v>7.2</v>
       </c>
       <c r="AI7" t="n">
-        <v>918.6999999999998</v>
+        <v>182.3999999999999</v>
       </c>
       <c r="AJ7" t="n">
         <v>6783.3</v>
@@ -4177,7 +4177,7 @@
         <v>2.7</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AM7" t="n">
         <v>15.2</v>
@@ -4186,7 +4186,7 @@
         <v>12.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.5</v>
+        <v>2.599999999999999</v>
       </c>
       <c r="AP7" t="n">
         <v>5.9</v>
@@ -4204,7 +4204,7 @@
         <v>7.8</v>
       </c>
       <c r="AU7" t="n">
-        <v>61.69999999999999</v>
+        <v>61.50000000000011</v>
       </c>
       <c r="AV7" t="n">
         <v>368.4</v>
@@ -4213,7 +4213,7 @@
         <v>-1.9</v>
       </c>
       <c r="AX7" t="n">
-        <v>5.199999999999996</v>
+        <v>3.199999999999992</v>
       </c>
       <c r="AY7" t="n">
         <v>39.6</v>
@@ -4231,7 +4231,7 @@
         <v>2.9</v>
       </c>
       <c r="BD7" t="n">
-        <v>17.10000000000001</v>
+        <v>14.49999999999998</v>
       </c>
       <c r="BE7" t="n">
         <v>107.7</v>
@@ -4249,7 +4249,7 @@
         <v>13.7</v>
       </c>
       <c r="BJ7" t="n">
-        <v>34.89999999999998</v>
+        <v>6.399999999999977</v>
       </c>
       <c r="BK7" t="n">
         <v>269.4</v>
@@ -4258,7 +4258,7 @@
         <v>8.6</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.9000000000000004</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BN7" t="n">
         <v>6.6</v>
@@ -4267,7 +4267,7 @@
         <v>-2.9</v>
       </c>
       <c r="BP7" t="n">
-        <v>65.89999999999998</v>
+        <v>22.89999999999991</v>
       </c>
       <c r="BQ7" t="n">
         <v>522.4</v>
@@ -4276,7 +4276,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="BS7" t="n">
-        <v>9.399999999999999</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="BT7" t="n">
         <v>70.90000000000001</v>
@@ -4285,7 +4285,7 @@
         <v>12.7</v>
       </c>
       <c r="BV7" t="n">
-        <v>203.3000000000002</v>
+        <v>64.60000000000022</v>
       </c>
       <c r="BW7" t="n">
         <v>1515.8</v>
@@ -4321,7 +4321,7 @@
         <v>0.5</v>
       </c>
       <c r="CH7" t="n">
-        <v>31.59999999999999</v>
+        <v>16.79999999999993</v>
       </c>
       <c r="CI7" t="n">
         <v>209.7</v>
@@ -4348,7 +4348,7 @@
         <v>1</v>
       </c>
       <c r="CQ7" t="n">
-        <v>3.899999999999999</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="CR7" t="n">
         <v>43.3</v>
@@ -4357,7 +4357,7 @@
         <v>-1.8</v>
       </c>
       <c r="CT7" t="n">
-        <v>40.19999999999999</v>
+        <v>12.59999999999997</v>
       </c>
       <c r="CU7" t="n">
         <v>384.6</v>
@@ -4366,7 +4366,7 @@
         <v>32.1</v>
       </c>
       <c r="CW7" t="n">
-        <v>21.90000000000001</v>
+        <v>3.999999999999979</v>
       </c>
       <c r="CX7" t="n">
         <v>168</v>
@@ -4393,7 +4393,7 @@
         <v>2.8</v>
       </c>
       <c r="DF7" t="n">
-        <v>93.60000000000002</v>
+        <v>21.40000000000002</v>
       </c>
       <c r="DG7" t="n">
         <v>803.4</v>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="DI7" t="n">
-        <v>2.599999999999999</v>
+        <v>0.1999999999999991</v>
       </c>
       <c r="DJ7" t="n">
         <v>7.9</v>
@@ -4420,7 +4420,7 @@
         <v>6.9</v>
       </c>
       <c r="DO7" t="n">
-        <v>6.900000000000006</v>
+        <v>4.10000000000001</v>
       </c>
       <c r="DP7" t="n">
         <v>58.5</v>
@@ -4429,7 +4429,7 @@
         <v>-7.6</v>
       </c>
       <c r="DR7" t="n">
-        <v>36</v>
+        <v>4.100000000000019</v>
       </c>
       <c r="DS7" t="n">
         <v>274.7</v>
@@ -4438,7 +4438,7 @@
         <v>1.1</v>
       </c>
       <c r="DU7" t="n">
-        <v>1.800000000000001</v>
+        <v>0.4000000000000039</v>
       </c>
       <c r="DV7" t="n">
         <v>22.7</v>
@@ -4447,7 +4447,7 @@
         <v>7.1</v>
       </c>
       <c r="DX7" t="n">
-        <v>7.799999999999997</v>
+        <v>1.400000000000004</v>
       </c>
       <c r="DY7" t="n">
         <v>63.9</v>
@@ -4688,7 +4688,7 @@
         <v>2.9</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.80000000000004</v>
+        <v>1.60000000000008</v>
       </c>
       <c r="AA8" t="n">
         <v>160.5</v>
@@ -4697,7 +4697,7 @@
         <v>14.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.800000000000001</v>
+        <v>1.600000000000002</v>
       </c>
       <c r="AD8" t="n">
         <v>27.3</v>
@@ -4706,7 +4706,7 @@
         <v>1.9</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.199999999999999</v>
+        <v>2.399999999999995</v>
       </c>
       <c r="AG8" t="n">
         <v>25.2</v>
@@ -4724,7 +4724,7 @@
         <v>2.9</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AM8" t="n">
         <v>17.1</v>
@@ -4742,7 +4742,7 @@
         <v>-7.1</v>
       </c>
       <c r="AR8" t="n">
-        <v>6.600000000000001</v>
+        <v>3.400000000000013</v>
       </c>
       <c r="AS8" t="n">
         <v>50.5</v>
@@ -4769,7 +4769,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.7999999999999972</v>
+        <v>0.3999999999999981</v>
       </c>
       <c r="BB8" t="n">
         <v>31.7</v>
@@ -4787,7 +4787,7 @@
         <v>-2.4</v>
       </c>
       <c r="BG8" t="n">
-        <v>3.700000000000006</v>
+        <v>3.299999999999986</v>
       </c>
       <c r="BH8" t="n">
         <v>86.59999999999999</v>
@@ -4841,7 +4841,7 @@
         <v>5.1</v>
       </c>
       <c r="BY8" t="n">
-        <v>29.40000000000012</v>
+        <v>29.39999999999972</v>
       </c>
       <c r="BZ8" t="n">
         <v>1560.7</v>
@@ -4850,7 +4850,7 @@
         <v>4.5</v>
       </c>
       <c r="CB8" t="n">
-        <v>13.49999999999995</v>
+        <v>8.499999999999851</v>
       </c>
       <c r="CC8" t="n">
         <v>340.4</v>
@@ -4859,7 +4859,7 @@
         <v>9.6</v>
       </c>
       <c r="CE8" t="n">
-        <v>5.599999999999994</v>
+        <v>5</v>
       </c>
       <c r="CF8" t="n">
         <v>44.9</v>
@@ -4868,7 +4868,7 @@
         <v>0.4</v>
       </c>
       <c r="CH8" t="n">
-        <v>27.70000000000002</v>
+        <v>3.50000000000006</v>
       </c>
       <c r="CI8" t="n">
         <v>243.7</v>
@@ -4886,7 +4886,7 @@
         <v>62.5</v>
       </c>
       <c r="CN8" t="n">
-        <v>3.400000000000031</v>
+        <v>0.3000000000000331</v>
       </c>
       <c r="CO8" t="n">
         <v>146.8</v>
@@ -4895,7 +4895,7 @@
         <v>-0.3</v>
       </c>
       <c r="CQ8" t="n">
-        <v>6.799999999999997</v>
+        <v>2.899999999999998</v>
       </c>
       <c r="CR8" t="n">
         <v>53.4</v>
@@ -4949,7 +4949,7 @@
         <v>2.1</v>
       </c>
       <c r="DI8" t="n">
-        <v>1.700000000000001</v>
+        <v>0.300000000000002</v>
       </c>
       <c r="DJ8" t="n">
         <v>12</v>
@@ -5003,7 +5003,7 @@
         <v>3.1</v>
       </c>
       <c r="EA8" t="n">
-        <v>62.80000000000007</v>
+        <v>47.20000000000015</v>
       </c>
       <c r="EB8" t="n">
         <v>496.8</v>
@@ -5012,7 +5012,7 @@
         <v>-14.5</v>
       </c>
       <c r="ED8" t="n">
-        <v>10.7</v>
+        <v>5.899999999999981</v>
       </c>
       <c r="EE8" t="n">
         <v>108.3</v>
@@ -5163,7 +5163,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22.39999999999998</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="C9" t="n">
         <v>248.4</v>
@@ -5181,7 +5181,7 @@
         <v>22.3</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5999999999999996</v>
+        <v>0.5999999999999979</v>
       </c>
       <c r="I9" t="n">
         <v>6.8</v>
@@ -5208,7 +5208,7 @@
         <v>4.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>595.8999999999996</v>
+        <v>453.6999999999971</v>
       </c>
       <c r="R9" t="n">
         <v>5799.6</v>
@@ -5226,7 +5226,7 @@
         <v>-2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="X9" t="n">
         <v>92.2</v>
@@ -5235,7 +5235,7 @@
         <v>5</v>
       </c>
       <c r="Z9" t="n">
-        <v>12.39999999999998</v>
+        <v>7.399999999999881</v>
       </c>
       <c r="AA9" t="n">
         <v>185.3</v>
@@ -5244,7 +5244,7 @@
         <v>15.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.5</v>
+        <v>1.899999999999998</v>
       </c>
       <c r="AD9" t="n">
         <v>30.8</v>
@@ -5253,7 +5253,7 @@
         <v>0.7</v>
       </c>
       <c r="AF9" t="n">
-        <v>3</v>
+        <v>0.2000000000000028</v>
       </c>
       <c r="AG9" t="n">
         <v>28.5</v>
@@ -5262,7 +5262,7 @@
         <v>4.8</v>
       </c>
       <c r="AI9" t="n">
-        <v>897.7000000000007</v>
+        <v>628.5000000000005</v>
       </c>
       <c r="AJ9" t="n">
         <v>8845.5</v>
@@ -5289,7 +5289,7 @@
         <v>-6.2</v>
       </c>
       <c r="AR9" t="n">
-        <v>5.799999999999997</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="AS9" t="n">
         <v>57.8</v>
@@ -5307,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.5</v>
+        <v>0.8999999999999917</v>
       </c>
       <c r="AY9" t="n">
         <v>52.8</v>
@@ -5316,7 +5316,7 @@
         <v>8</v>
       </c>
       <c r="BA9" t="n">
-        <v>4.200000000000003</v>
+        <v>3.000000000000008</v>
       </c>
       <c r="BB9" t="n">
         <v>36.6</v>
@@ -5334,7 +5334,7 @@
         <v>1.6</v>
       </c>
       <c r="BG9" t="n">
-        <v>9.700000000000003</v>
+        <v>2.5</v>
       </c>
       <c r="BH9" t="n">
         <v>95.59999999999999</v>
@@ -5343,7 +5343,7 @@
         <v>7.2</v>
       </c>
       <c r="BJ9" t="n">
-        <v>34.69999999999999</v>
+        <v>26.69999999999989</v>
       </c>
       <c r="BK9" t="n">
         <v>346.5</v>
@@ -5352,7 +5352,7 @@
         <v>7.7</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.6999999999999993</v>
+        <v>0.2999999999999982</v>
       </c>
       <c r="BN9" t="n">
         <v>6.4</v>
@@ -5361,7 +5361,7 @@
         <v>-27.3</v>
       </c>
       <c r="BP9" t="n">
-        <v>71.89999999999998</v>
+        <v>21.89999999999998</v>
       </c>
       <c r="BQ9" t="n">
         <v>718.5</v>
@@ -5379,7 +5379,7 @@
         <v>11.6</v>
       </c>
       <c r="BV9" t="n">
-        <v>199.0999999999999</v>
+        <v>135.5000000000005</v>
       </c>
       <c r="BW9" t="n">
         <v>1958.6</v>
@@ -5388,7 +5388,7 @@
         <v>4.3</v>
       </c>
       <c r="BY9" t="n">
-        <v>179.6999999999998</v>
+        <v>120.8999999999998</v>
       </c>
       <c r="BZ9" t="n">
         <v>1773.3</v>
@@ -5397,7 +5397,7 @@
         <v>3.8</v>
       </c>
       <c r="CB9" t="n">
-        <v>37.5</v>
+        <v>13.00000000000015</v>
       </c>
       <c r="CC9" t="n">
         <v>389.5</v>
@@ -5433,7 +5433,7 @@
         <v>56.8</v>
       </c>
       <c r="CN9" t="n">
-        <v>17.59999999999999</v>
+        <v>13.89999999999993</v>
       </c>
       <c r="CO9" t="n">
         <v>166.1</v>
@@ -5442,7 +5442,7 @@
         <v>-1.3</v>
       </c>
       <c r="CQ9" t="n">
-        <v>6.100000000000001</v>
+        <v>3.200000000000003</v>
       </c>
       <c r="CR9" t="n">
         <v>60.5</v>
@@ -5451,7 +5451,7 @@
         <v>-0.7</v>
       </c>
       <c r="CT9" t="n">
-        <v>46</v>
+        <v>15.80000000000001</v>
       </c>
       <c r="CU9" t="n">
         <v>525.1</v>
@@ -5460,7 +5460,7 @@
         <v>30.7</v>
       </c>
       <c r="CW9" t="n">
-        <v>18.39999999999998</v>
+        <v>16.2</v>
       </c>
       <c r="CX9" t="n">
         <v>208.8</v>
@@ -5469,7 +5469,7 @@
         <v>1.7</v>
       </c>
       <c r="CZ9" t="n">
-        <v>16.90000000000001</v>
+        <v>11.50000000000007</v>
       </c>
       <c r="DA9" t="n">
         <v>146</v>
@@ -5478,7 +5478,7 @@
         <v>-8.5</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.3000000000000114</v>
+        <v>0.100000000000037</v>
       </c>
       <c r="DD9" t="n">
         <v>74</v>
@@ -5487,7 +5487,7 @@
         <v>4.8</v>
       </c>
       <c r="DF9" t="n">
-        <v>102.7</v>
+        <v>39.29999999999986</v>
       </c>
       <c r="DG9" t="n">
         <v>1087.4</v>
@@ -5505,7 +5505,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="DL9" t="n">
-        <v>15.79999999999998</v>
+        <v>11.79999999999992</v>
       </c>
       <c r="DM9" t="n">
         <v>184.3</v>
@@ -5514,7 +5514,7 @@
         <v>2.7</v>
       </c>
       <c r="DO9" t="n">
-        <v>12.90000000000001</v>
+        <v>6.400000000000025</v>
       </c>
       <c r="DP9" t="n">
         <v>74.59999999999999</v>
@@ -5523,7 +5523,7 @@
         <v>-10.8</v>
       </c>
       <c r="DR9" t="n">
-        <v>35.90000000000003</v>
+        <v>15.90000000000003</v>
       </c>
       <c r="DS9" t="n">
         <v>354.9</v>
@@ -5532,7 +5532,7 @@
         <v>0.3</v>
       </c>
       <c r="DU9" t="n">
-        <v>4</v>
+        <v>0.6000000000000021</v>
       </c>
       <c r="DV9" t="n">
         <v>26.3</v>
@@ -5541,7 +5541,7 @@
         <v>-0.8</v>
       </c>
       <c r="DX9" t="n">
-        <v>3.000000000000004</v>
+        <v>1.399999999999995</v>
       </c>
       <c r="DY9" t="n">
         <v>82</v>
@@ -5550,7 +5550,7 @@
         <v>2.5</v>
       </c>
       <c r="EA9" t="n">
-        <v>61.69999999999993</v>
+        <v>6.699999999999825</v>
       </c>
       <c r="EB9" t="n">
         <v>563</v>
@@ -5710,7 +5710,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.30000000000001</v>
+        <v>11.20000000000001</v>
       </c>
       <c r="C10" t="n">
         <v>272.4</v>
@@ -5746,7 +5746,7 @@
         <v>-100</v>
       </c>
       <c r="N10" t="n">
-        <v>2.499999999999968</v>
+        <v>1.499999999999968</v>
       </c>
       <c r="O10" t="n">
         <v>274.6</v>
@@ -5755,7 +5755,7 @@
         <v>2.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>568.9000000000005</v>
+        <v>44.10000000000218</v>
       </c>
       <c r="R10" t="n">
         <v>6398.4</v>
@@ -5773,7 +5773,7 @@
         <v>-1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>8.400000000000006</v>
+        <v>0.600000000000005</v>
       </c>
       <c r="X10" t="n">
         <v>98.90000000000001</v>
@@ -5809,7 +5809,7 @@
         <v>5</v>
       </c>
       <c r="AI10" t="n">
-        <v>876.0999999999985</v>
+        <v>112.999999999998</v>
       </c>
       <c r="AJ10" t="n">
         <v>9774</v>
@@ -5818,7 +5818,7 @@
         <v>3.2</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AM10" t="n">
         <v>21.8</v>
@@ -5854,7 +5854,7 @@
         <v>2.1</v>
       </c>
       <c r="AX10" t="n">
-        <v>5.300000000000004</v>
+        <v>2.600000000000008</v>
       </c>
       <c r="AY10" t="n">
         <v>57.8</v>
@@ -5881,7 +5881,7 @@
         <v>-0.7</v>
       </c>
       <c r="BG10" t="n">
-        <v>8.799999999999997</v>
+        <v>2.800000000000002</v>
       </c>
       <c r="BH10" t="n">
         <v>112.6</v>
@@ -5899,7 +5899,7 @@
         <v>6.2</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.6999999999999993</v>
+        <v>0.2000000000000006</v>
       </c>
       <c r="BN10" t="n">
         <v>7</v>
@@ -5908,7 +5908,7 @@
         <v>-26.3</v>
       </c>
       <c r="BP10" t="n">
-        <v>67.30000000000007</v>
+        <v>20.40000000000009</v>
       </c>
       <c r="BQ10" t="n">
         <v>791.9</v>
@@ -5917,7 +5917,7 @@
         <v>-1.2</v>
       </c>
       <c r="BS10" t="n">
-        <v>8.5</v>
+        <v>4.699999999999989</v>
       </c>
       <c r="BT10" t="n">
         <v>100.3</v>
@@ -5953,7 +5953,7 @@
         <v>6.9</v>
       </c>
       <c r="CE10" t="n">
-        <v>4.399999999999999</v>
+        <v>2.799999999999976</v>
       </c>
       <c r="CF10" t="n">
         <v>55.4</v>
@@ -5962,7 +5962,7 @@
         <v>-2.3</v>
       </c>
       <c r="CH10" t="n">
-        <v>28.70000000000005</v>
+        <v>3.500000000000188</v>
       </c>
       <c r="CI10" t="n">
         <v>316.4</v>
@@ -5971,7 +5971,7 @@
         <v>-1.9</v>
       </c>
       <c r="CK10" t="n">
-        <v>9.299999999999979</v>
+        <v>4.499999999999968</v>
       </c>
       <c r="CL10" t="n">
         <v>175.7</v>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="CT10" t="n">
-        <v>36.40000000000003</v>
+        <v>20.60000000000002</v>
       </c>
       <c r="CU10" t="n">
         <v>575.2</v>
@@ -6016,7 +6016,7 @@
         <v>2</v>
       </c>
       <c r="CZ10" t="n">
-        <v>15.40000000000001</v>
+        <v>1.199999999999969</v>
       </c>
       <c r="DA10" t="n">
         <v>164.8</v>
@@ -6025,7 +6025,7 @@
         <v>-6.6</v>
       </c>
       <c r="DC10" t="n">
-        <v>7.299999999999997</v>
+        <v>6.799999999999962</v>
       </c>
       <c r="DD10" t="n">
         <v>80.7</v>
@@ -6061,7 +6061,7 @@
         <v>3.4</v>
       </c>
       <c r="DO10" t="n">
-        <v>82.5</v>
+        <v>63.19999999999997</v>
       </c>
       <c r="DP10" t="n">
         <v>80.8</v>
@@ -6070,7 +6070,7 @@
         <v>-16.3</v>
       </c>
       <c r="DR10" t="n">
-        <v>35.59999999999997</v>
+        <v>9.699999999999942</v>
       </c>
       <c r="DS10" t="n">
         <v>392.4</v>
@@ -6079,7 +6079,7 @@
         <v>0.7</v>
       </c>
       <c r="DU10" t="n">
-        <v>4.100000000000001</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="DV10" t="n">
         <v>32.9</v>
@@ -6088,7 +6088,7 @@
         <v>-3.2</v>
       </c>
       <c r="DX10" t="n">
-        <v>7.599999999999994</v>
+        <v>3.199999999999996</v>
       </c>
       <c r="DY10" t="n">
         <v>93.90000000000001</v>
@@ -6106,7 +6106,7 @@
         <v>-11.9</v>
       </c>
       <c r="ED10" t="n">
-        <v>1.200000000000001</v>
+        <v>0.7999999999999812</v>
       </c>
       <c r="EE10" t="n">
         <v>128.7</v>
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.19999999999999</v>
+        <v>5.899999999999977</v>
       </c>
       <c r="C11" t="n">
         <v>289.1</v>
@@ -6266,7 +6266,7 @@
         <v>1.7</v>
       </c>
       <c r="E11" t="n">
-        <v>3.800000000000004</v>
+        <v>2.200000000000008</v>
       </c>
       <c r="F11" t="n">
         <v>42.6</v>
@@ -6275,7 +6275,7 @@
         <v>18.7</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4999999999999989</v>
+        <v>0.2999999999999979</v>
       </c>
       <c r="I11" t="n">
         <v>8.6</v>
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>9.399999999999984</v>
+        <v>4.900000000000048</v>
       </c>
       <c r="O11" t="n">
         <v>304.4</v>
@@ -6320,7 +6320,7 @@
         <v>-1.9</v>
       </c>
       <c r="W11" t="n">
-        <v>8.599999999999994</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="X11" t="n">
         <v>109.1</v>
@@ -6329,7 +6329,7 @@
         <v>3.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>11.90000000000001</v>
+        <v>5.699999999999971</v>
       </c>
       <c r="AA11" t="n">
         <v>219</v>
@@ -6347,7 +6347,7 @@
         <v>0.8</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.699999999999992</v>
+        <v>3.699999999999984</v>
       </c>
       <c r="AG11" t="n">
         <v>35.1</v>
@@ -6374,7 +6374,7 @@
         <v>19.1</v>
       </c>
       <c r="AO11" t="n">
-        <v>6.7</v>
+        <v>6.100000000000001</v>
       </c>
       <c r="AP11" t="n">
         <v>8.6</v>
@@ -6383,7 +6383,7 @@
         <v>10.3</v>
       </c>
       <c r="AR11" t="n">
-        <v>3.399999999999999</v>
+        <v>3.199999999999997</v>
       </c>
       <c r="AS11" t="n">
         <v>68.8</v>
@@ -6392,7 +6392,7 @@
         <v>3.8</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.10000000000003</v>
+        <v>0.1000000000001506</v>
       </c>
       <c r="AV11" t="n">
         <v>595.1</v>
@@ -6410,7 +6410,7 @@
         <v>7</v>
       </c>
       <c r="BA11" t="n">
-        <v>3.100000000000009</v>
+        <v>2.900000000000021</v>
       </c>
       <c r="BB11" t="n">
         <v>44.2</v>
@@ -6419,7 +6419,7 @@
         <v>-1.3</v>
       </c>
       <c r="BD11" t="n">
-        <v>10.20000000000002</v>
+        <v>10.0000000000001</v>
       </c>
       <c r="BE11" t="n">
         <v>170.2</v>
@@ -6437,7 +6437,7 @@
         <v>14.3</v>
       </c>
       <c r="BJ11" t="n">
-        <v>8</v>
+        <v>0.7999999999999541</v>
       </c>
       <c r="BK11" t="n">
         <v>416.4</v>
@@ -6473,7 +6473,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="BV11" t="n">
-        <v>30.40000000000009</v>
+        <v>21.59999999999991</v>
       </c>
       <c r="BW11" t="n">
         <v>2390.8</v>
@@ -6482,7 +6482,7 @@
         <v>4.8</v>
       </c>
       <c r="BY11" t="n">
-        <v>19.49999999999949</v>
+        <v>6.499999999998469</v>
       </c>
       <c r="BZ11" t="n">
         <v>2160.8</v>
@@ -6491,7 +6491,7 @@
         <v>4.2</v>
       </c>
       <c r="CB11" t="n">
-        <v>19</v>
+        <v>13.39999999999998</v>
       </c>
       <c r="CC11" t="n">
         <v>474.7</v>
@@ -6509,7 +6509,7 @@
         <v>-2</v>
       </c>
       <c r="CH11" t="n">
-        <v>24.09999999999997</v>
+        <v>7.999999999999851</v>
       </c>
       <c r="CI11" t="n">
         <v>340.6</v>
@@ -6518,7 +6518,7 @@
         <v>-3</v>
       </c>
       <c r="CK11" t="n">
-        <v>9.5</v>
+        <v>0.2000000000000206</v>
       </c>
       <c r="CL11" t="n">
         <v>195.8</v>
@@ -6527,7 +6527,7 @@
         <v>63.2</v>
       </c>
       <c r="CN11" t="n">
-        <v>8.100000000000023</v>
+        <v>3.900000000000027</v>
       </c>
       <c r="CO11" t="n">
         <v>201.4</v>
@@ -6536,7 +6536,7 @@
         <v>-2</v>
       </c>
       <c r="CQ11" t="n">
-        <v>6.599999999999991</v>
+        <v>5.799999999999994</v>
       </c>
       <c r="CR11" t="n">
         <v>73.8</v>
@@ -6545,7 +6545,7 @@
         <v>0.4</v>
       </c>
       <c r="CT11" t="n">
-        <v>44.39999999999993</v>
+        <v>7.999999999999901</v>
       </c>
       <c r="CU11" t="n">
         <v>633.5</v>
@@ -6554,7 +6554,7 @@
         <v>30.9</v>
       </c>
       <c r="CW11" t="n">
-        <v>11.79999999999995</v>
+        <v>8.19999999999987</v>
       </c>
       <c r="CX11" t="n">
         <v>249</v>
@@ -6581,7 +6581,7 @@
         <v>3.1</v>
       </c>
       <c r="DF11" t="n">
-        <v>84.70000000000005</v>
+        <v>82.70000000000044</v>
       </c>
       <c r="DG11" t="n">
         <v>1311.5</v>
@@ -6599,7 +6599,7 @@
         <v>7.5</v>
       </c>
       <c r="DL11" t="n">
-        <v>13.5</v>
+        <v>9.29999999999994</v>
       </c>
       <c r="DM11" t="n">
         <v>219.3</v>
@@ -6635,7 +6635,7 @@
         <v>-3.1</v>
       </c>
       <c r="DX11" t="n">
-        <v>9.700000000000006</v>
+        <v>2.100000000000012</v>
       </c>
       <c r="DY11" t="n">
         <v>103.6</v>
@@ -6653,7 +6653,7 @@
         <v>-12.7</v>
       </c>
       <c r="ED11" t="n">
-        <v>9.599999999999994</v>
+        <v>7.400000000000002</v>
       </c>
       <c r="EE11" t="n">
         <v>142.2</v>
